--- a/Cab Details.xlsx
+++ b/Cab Details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Vendor Name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>₹11,823</t>
+  </si>
+  <si>
+    <t>₹12,283</t>
   </si>
   <si>
     <t>CLEARCARRENTAL</t>
@@ -99,7 +102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -140,24 +143,35 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
